--- a/documents/multiple_individual_analyses_table.xlsx
+++ b/documents/multiple_individual_analyses_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\These\ABSP\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D53856-0485-4C9C-9F98-BACF7CD37779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD39A27B-671C-4AA8-BF43-8F22A10FEA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="585" windowWidth="23670" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments data" sheetId="2" r:id="rId1"/>
@@ -285,7 +285,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">refers to the experiment repetition identifier
-It must be an integer &gt;1
+It must be an integer ≥1
 </t>
         </r>
         <r>
@@ -339,7 +339,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> refers to the individual clone identifier
-It must be an integer &gt;1</t>
+It must be an integer ≥1</t>
         </r>
         <r>
           <rPr>
@@ -1856,7 +1856,7 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
